--- a/FurryMine/Assets/Datas/EnforceTable.xlsx
+++ b/FurryMine/Assets/Datas/EnforceTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Resources_moved\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CE4D8-BA7C-4E23-B65A-4DBB8F9C76B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F90BE-F24B-4175-A06D-83D719374CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A43B0041-ECC7-4F66-A9C8-632AF401BCEC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>Limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재생성 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광석 갯수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광물 가치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7FD664-AEB3-4555-B7F8-3F529677FD74}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -481,7 +497,7 @@
     <col min="4" max="4" width="6.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,7 +514,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -515,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -532,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -549,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -566,7 +582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -583,7 +599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -600,7 +616,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -617,7 +633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -634,7 +650,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -649,6 +665,75 @@
       </c>
       <c r="E10" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="1">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/FurryMine/Assets/Datas/EnforceTable.xlsx
+++ b/FurryMine/Assets/Datas/EnforceTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98F90BE-F24B-4175-A06D-83D719374CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF06C79-7063-4671-8492-E680AAFCF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A43B0041-ECC7-4F66-A9C8-632AF401BCEC}"/>
+    <workbookView xWindow="3525" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{A43B0041-ECC7-4F66-A9C8-632AF401BCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>광물 가치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채광력 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채광속도 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동속도 버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7FD664-AEB3-4555-B7F8-3F529677FD74}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -511,6 +535,9 @@
         <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -528,6 +555,9 @@
         <v>1</v>
       </c>
       <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>10</v>
       </c>
     </row>
@@ -545,6 +575,9 @@
         <v>0.01</v>
       </c>
       <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
         <v>10</v>
       </c>
     </row>
@@ -562,6 +595,9 @@
         <v>0.01</v>
       </c>
       <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
         <v>10</v>
       </c>
     </row>
@@ -573,12 +609,15 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="1">
         <v>1E-3</v>
       </c>
       <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>100</v>
       </c>
     </row>
@@ -596,6 +635,9 @@
         <v>0.01</v>
       </c>
       <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
         <v>100</v>
       </c>
     </row>
@@ -613,6 +655,9 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
         <v>10000</v>
       </c>
     </row>
@@ -630,6 +675,9 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>100</v>
       </c>
     </row>
@@ -647,6 +695,9 @@
         <v>0.01</v>
       </c>
       <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
         <v>100</v>
       </c>
     </row>
@@ -664,6 +715,9 @@
         <v>0.01</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
         <v>100</v>
       </c>
     </row>
@@ -681,9 +735,11 @@
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
-      </c>
-      <c r="F11" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -699,6 +755,9 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
         <v>10</v>
       </c>
     </row>
@@ -716,6 +775,9 @@
         <v>1</v>
       </c>
       <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
         <v>10</v>
       </c>
     </row>
@@ -733,6 +795,109 @@
         <v>1</v>
       </c>
       <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
       </c>
     </row>

--- a/FurryMine/Assets/Datas/EnforceTable.xlsx
+++ b/FurryMine/Assets/Datas/EnforceTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF06C79-7063-4671-8492-E680AAFCF78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7194D594-2791-40D6-B8D6-4645701D8224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3525" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{A43B0041-ECC7-4F66-A9C8-632AF401BCEC}"/>
+    <workbookView xWindow="3090" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{A43B0041-ECC7-4F66-A9C8-632AF401BCEC}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -510,7 +510,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -618,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -649,7 +649,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -698,7 +698,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -718,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -749,7 +749,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>10</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
